--- a/NformTester/NformTester/Keywordscripts/600.30.30.90_MoveDeviceFromNavigationTreetoAvailableDevices.xlsx
+++ b/NformTester/NformTester/Keywordscripts/600.30.30.90_MoveDeviceFromNavigationTreetoAvailableDevices.xlsx
@@ -1260,7 +1260,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7666" uniqueCount="874">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7666" uniqueCount="875">
   <si>
     <t>FormLogin_to_LiebertR_Nform</t>
   </si>
@@ -3919,6 +3919,10 @@
   </si>
   <si>
     <t>$SNMP_SearchStart_0$</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>;</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -4530,7 +4534,7 @@
   <dimension ref="A1:O135"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5140,7 +5144,7 @@
         <v>19</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>832</v>
+        <v>874</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>800</v>
@@ -5166,7 +5170,7 @@
         <v>20</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>832</v>
+        <v>874</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>800</v>

--- a/NformTester/NformTester/Keywordscripts/600.30.30.90_MoveDeviceFromNavigationTreetoAvailableDevices.xlsx
+++ b/NformTester/NformTester/Keywordscripts/600.30.30.90_MoveDeviceFromNavigationTreetoAvailableDevices.xlsx
@@ -3918,11 +3918,11 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>$SNMP_SearchStart_0$</t>
+    <t>;</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>;</t>
+    <t>$NAME_SearchStart_0$</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -4533,8 +4533,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O135"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4905,7 +4905,7 @@
         <v>2</v>
       </c>
       <c r="I12" s="21" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="J12" s="21"/>
       <c r="K12" s="21"/>
@@ -5144,7 +5144,7 @@
         <v>19</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>800</v>
@@ -5170,7 +5170,7 @@
         <v>20</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>800</v>
